--- a/data/pca/factorExposure/factorExposure_2016-02-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-02-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01286883219657729</v>
+        <v>0.01635392551865054</v>
       </c>
       <c r="C2">
-        <v>0.06014391046292297</v>
+        <v>0.04606703789038436</v>
       </c>
       <c r="D2">
-        <v>0.06540363887344382</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.08202903829567883</v>
+      </c>
+      <c r="E2">
+        <v>0.1229723028775173</v>
+      </c>
+      <c r="F2">
+        <v>0.03867020440361989</v>
+      </c>
+      <c r="G2">
+        <v>-0.04677389311229611</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.03492001367196958</v>
+        <v>0.02181299906938479</v>
       </c>
       <c r="C3">
-        <v>0.1154005886376095</v>
+        <v>0.05965693908125192</v>
       </c>
       <c r="D3">
-        <v>0.06801931134117722</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07803411217405515</v>
+      </c>
+      <c r="E3">
+        <v>0.1081085472473739</v>
+      </c>
+      <c r="F3">
+        <v>-0.01810300096747463</v>
+      </c>
+      <c r="G3">
+        <v>-0.09898350271541902</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06096135720637661</v>
+        <v>0.06174225460688074</v>
       </c>
       <c r="C4">
-        <v>0.06323491920974965</v>
+        <v>0.06405097481085072</v>
       </c>
       <c r="D4">
-        <v>0.04443201272622146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08147705246207505</v>
+      </c>
+      <c r="E4">
+        <v>0.1106152383170497</v>
+      </c>
+      <c r="F4">
+        <v>-0.0311976554715751</v>
+      </c>
+      <c r="G4">
+        <v>0.03901329026771305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.04364801970041811</v>
+        <v>0.04066633675413329</v>
       </c>
       <c r="C6">
-        <v>0.04082136614299181</v>
+        <v>0.02912960661134429</v>
       </c>
       <c r="D6">
-        <v>0.04669990281061653</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.08330203126917696</v>
+      </c>
+      <c r="E6">
+        <v>0.09478068386867047</v>
+      </c>
+      <c r="F6">
+        <v>-0.02046668836770236</v>
+      </c>
+      <c r="G6">
+        <v>-0.001489251450360938</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.03136074621709986</v>
+        <v>0.02358129724534353</v>
       </c>
       <c r="C7">
-        <v>0.04367207799380982</v>
+        <v>0.0409686992082085</v>
       </c>
       <c r="D7">
-        <v>0.0353664029520435</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.0646210056706065</v>
+      </c>
+      <c r="E7">
+        <v>0.07923167050728125</v>
+      </c>
+      <c r="F7">
+        <v>-0.02012085158580134</v>
+      </c>
+      <c r="G7">
+        <v>0.04878719016919597</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.01074069811718257</v>
+        <v>0.008854264150048715</v>
       </c>
       <c r="C8">
-        <v>0.05180511104961184</v>
+        <v>0.0408300328743155</v>
       </c>
       <c r="D8">
-        <v>0.03761555338548289</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.0541888122709262</v>
+      </c>
+      <c r="E8">
+        <v>0.06407512220698625</v>
+      </c>
+      <c r="F8">
+        <v>-0.01557676093972761</v>
+      </c>
+      <c r="G8">
+        <v>-0.0163065566958307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.04164447106831492</v>
+        <v>0.04439022053146915</v>
       </c>
       <c r="C9">
-        <v>0.04764970871411402</v>
+        <v>0.05208154611160738</v>
       </c>
       <c r="D9">
-        <v>0.04002830328288732</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.06899118706529669</v>
+      </c>
+      <c r="E9">
+        <v>0.08575897984478398</v>
+      </c>
+      <c r="F9">
+        <v>-0.009657717401817667</v>
+      </c>
+      <c r="G9">
+        <v>0.04340527392243138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.08028615154774436</v>
+        <v>0.1053706338370718</v>
       </c>
       <c r="C10">
-        <v>-0.1814059681972562</v>
+        <v>-0.1974710343407505</v>
       </c>
       <c r="D10">
-        <v>0.01324218802234304</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.005184845273451984</v>
+      </c>
+      <c r="E10">
+        <v>0.04037643894470661</v>
+      </c>
+      <c r="F10">
+        <v>-0.004442107636557872</v>
+      </c>
+      <c r="G10">
+        <v>0.03208833764911333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04639460823687972</v>
+        <v>0.03888232529353739</v>
       </c>
       <c r="C11">
-        <v>0.05428249299289738</v>
+        <v>0.04947707644472306</v>
       </c>
       <c r="D11">
-        <v>0.02862955411442598</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.04479021699748001</v>
+      </c>
+      <c r="E11">
+        <v>0.03662060404702456</v>
+      </c>
+      <c r="F11">
+        <v>-0.0141964683574293</v>
+      </c>
+      <c r="G11">
+        <v>0.03698828831491074</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.04917696564913845</v>
+        <v>0.04120389978223782</v>
       </c>
       <c r="C12">
-        <v>0.0489368478593892</v>
+        <v>0.04790577513489575</v>
       </c>
       <c r="D12">
-        <v>0.01472868193613173</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.03744954257309691</v>
+      </c>
+      <c r="E12">
+        <v>0.04635910176506843</v>
+      </c>
+      <c r="F12">
+        <v>-0.006354169536584339</v>
+      </c>
+      <c r="G12">
+        <v>0.03251908453731622</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01690414300585327</v>
+        <v>0.01705586728931908</v>
       </c>
       <c r="C13">
-        <v>0.05851243418379091</v>
+        <v>0.04554109328293782</v>
       </c>
       <c r="D13">
-        <v>0.02692759518779866</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.07776413636175801</v>
+      </c>
+      <c r="E13">
+        <v>0.1299929368099024</v>
+      </c>
+      <c r="F13">
+        <v>-0.01946953690389758</v>
+      </c>
+      <c r="G13">
+        <v>0.04151769033928917</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.0163742579844777</v>
+        <v>0.009481672910544097</v>
       </c>
       <c r="C14">
-        <v>0.03476594687161809</v>
+        <v>0.0316860114616774</v>
       </c>
       <c r="D14">
-        <v>0.0211532309865483</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.04998461623818128</v>
+      </c>
+      <c r="E14">
+        <v>0.07818535768224556</v>
+      </c>
+      <c r="F14">
+        <v>0.009908619650815615</v>
+      </c>
+      <c r="G14">
+        <v>0.02885804241245072</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0004881937024368669</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.006532102585333517</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.01190508844962317</v>
+      </c>
+      <c r="E15">
+        <v>0.01182512201992903</v>
+      </c>
+      <c r="F15">
+        <v>0.0009369070776554074</v>
+      </c>
+      <c r="G15">
+        <v>-0.001198308094853606</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.04478131986032918</v>
+        <v>0.03788264356382073</v>
       </c>
       <c r="C16">
-        <v>0.05105126712363296</v>
+        <v>0.04720385769748409</v>
       </c>
       <c r="D16">
-        <v>0.01746963168294709</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.04102092463400758</v>
+      </c>
+      <c r="E16">
+        <v>0.04934508369028932</v>
+      </c>
+      <c r="F16">
+        <v>0.004662052478744286</v>
+      </c>
+      <c r="G16">
+        <v>0.02924514909103257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.02568826989867815</v>
+        <v>0.01803080953622914</v>
       </c>
       <c r="C19">
-        <v>0.05893218843143967</v>
+        <v>0.04360116736139</v>
       </c>
       <c r="D19">
-        <v>0.0925881533776645</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.104133769721337</v>
+      </c>
+      <c r="E19">
+        <v>0.1236805595512949</v>
+      </c>
+      <c r="F19">
+        <v>0.02181071000930997</v>
+      </c>
+      <c r="G19">
+        <v>-0.006958503888969908</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.02243937363257337</v>
+        <v>0.0178668091053989</v>
       </c>
       <c r="C20">
-        <v>0.05201413244417817</v>
+        <v>0.04243057683337862</v>
       </c>
       <c r="D20">
-        <v>0.02550160881586143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.05798580242472733</v>
+      </c>
+      <c r="E20">
+        <v>0.0971311697098232</v>
+      </c>
+      <c r="F20">
+        <v>-0.002291538638587113</v>
+      </c>
+      <c r="G20">
+        <v>0.01759515889022865</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.02207380385239841</v>
+        <v>0.01744701221372224</v>
       </c>
       <c r="C21">
-        <v>0.06242846141721884</v>
+        <v>0.04965099336305411</v>
       </c>
       <c r="D21">
-        <v>0.04673877808630705</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.0854459103560732</v>
+      </c>
+      <c r="E21">
+        <v>0.1498699095268631</v>
+      </c>
+      <c r="F21">
+        <v>0.02255514520791609</v>
+      </c>
+      <c r="G21">
+        <v>0.05555079531969292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.0009286664769072326</v>
+        <v>0.005285609213781357</v>
       </c>
       <c r="C22">
-        <v>0.01472548640835389</v>
+        <v>0.03074784671938685</v>
       </c>
       <c r="D22">
-        <v>0.02679956308960972</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.07078220480761621</v>
+      </c>
+      <c r="E22">
+        <v>0.07748122262351489</v>
+      </c>
+      <c r="F22">
+        <v>-0.06741591030098495</v>
+      </c>
+      <c r="G22">
+        <v>-0.05087397042229341</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.0009343506434948376</v>
+        <v>0.005405580725146171</v>
       </c>
       <c r="C23">
-        <v>0.01469502787603494</v>
+        <v>0.0308033995774044</v>
       </c>
       <c r="D23">
-        <v>0.02647554673304822</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.07011245134261948</v>
+      </c>
+      <c r="E23">
+        <v>0.0776706955727581</v>
+      </c>
+      <c r="F23">
+        <v>-0.06740180237740631</v>
+      </c>
+      <c r="G23">
+        <v>-0.05017811938795007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.04159532807281489</v>
+        <v>0.03885699205162098</v>
       </c>
       <c r="C24">
-        <v>0.0524473283500217</v>
+        <v>0.05531565353265197</v>
       </c>
       <c r="D24">
-        <v>0.02329946902709551</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.04183903441545254</v>
+      </c>
+      <c r="E24">
+        <v>0.05411793364393995</v>
+      </c>
+      <c r="F24">
+        <v>-0.000162907333036216</v>
+      </c>
+      <c r="G24">
+        <v>0.04400721084687766</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.05174317002790679</v>
+        <v>0.04521086294055413</v>
       </c>
       <c r="C25">
-        <v>0.05728260800620631</v>
+        <v>0.0553550665308417</v>
       </c>
       <c r="D25">
-        <v>0.01836459921535415</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.0388262066077902</v>
+      </c>
+      <c r="E25">
+        <v>0.04746256577561674</v>
+      </c>
+      <c r="F25">
+        <v>-0.01648159989424162</v>
+      </c>
+      <c r="G25">
+        <v>0.04774525476070526</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02273810769976748</v>
+        <v>0.01939369522622247</v>
       </c>
       <c r="C26">
-        <v>0.01865967368531699</v>
+        <v>0.01929324085117679</v>
       </c>
       <c r="D26">
-        <v>0.0234741154949664</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.04418997071631724</v>
+      </c>
+      <c r="E26">
+        <v>0.06071594016434818</v>
+      </c>
+      <c r="F26">
+        <v>0.01108011131631615</v>
+      </c>
+      <c r="G26">
+        <v>0.006826857888473282</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1312,226 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.101368860438499</v>
+        <v>0.1447170040406379</v>
       </c>
       <c r="C28">
-        <v>-0.2594440514970437</v>
+        <v>-0.2591150437388983</v>
       </c>
       <c r="D28">
-        <v>-0.004063110001232219</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02048648522309806</v>
+      </c>
+      <c r="E28">
+        <v>0.0743283052370088</v>
+      </c>
+      <c r="F28">
+        <v>0.002284461630260885</v>
+      </c>
+      <c r="G28">
+        <v>0.06834847687248317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01108581059050687</v>
+        <v>0.008361791793305436</v>
       </c>
       <c r="C29">
-        <v>0.03103852992617587</v>
+        <v>0.02893773652778386</v>
       </c>
       <c r="D29">
-        <v>0.01045957846734143</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.04280151898736389</v>
+      </c>
+      <c r="E29">
+        <v>0.07788489151157015</v>
+      </c>
+      <c r="F29">
+        <v>-0.001650427810399912</v>
+      </c>
+      <c r="G29">
+        <v>0.03625104503760151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04397260760260407</v>
+        <v>0.04427671142053805</v>
       </c>
       <c r="C30">
-        <v>0.04584011099442077</v>
+        <v>0.05527273088550312</v>
       </c>
       <c r="D30">
-        <v>0.0933696983579855</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1285773378472784</v>
+      </c>
+      <c r="E30">
+        <v>0.1073127355893203</v>
+      </c>
+      <c r="F30">
+        <v>0.0004526280850286378</v>
+      </c>
+      <c r="G30">
+        <v>-0.02345394664535667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.06757195050866291</v>
+        <v>0.06385940403609569</v>
       </c>
       <c r="C31">
-        <v>0.05189532718925099</v>
+        <v>0.06366335091549881</v>
       </c>
       <c r="D31">
-        <v>-0.02016965120332495</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.008715156230881661</v>
+      </c>
+      <c r="E31">
+        <v>0.08028176876374633</v>
+      </c>
+      <c r="F31">
+        <v>-0.04295978333571462</v>
+      </c>
+      <c r="G31">
+        <v>0.02942996988071004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.0009721291258245926</v>
+        <v>0.007528814638391722</v>
       </c>
       <c r="C32">
-        <v>0.03672514708812847</v>
+        <v>0.03344818081302688</v>
       </c>
       <c r="D32">
-        <v>0.04326635470267663</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05939095774074224</v>
+      </c>
+      <c r="E32">
+        <v>0.1096381263049793</v>
+      </c>
+      <c r="F32">
+        <v>0.02924544207602162</v>
+      </c>
+      <c r="G32">
+        <v>0.05369625548240145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.03822870372958938</v>
+        <v>0.03136360988763839</v>
       </c>
       <c r="C33">
-        <v>0.05936442398825379</v>
+        <v>0.05243362811517666</v>
       </c>
       <c r="D33">
-        <v>0.06537779819570128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.098302794698997</v>
+      </c>
+      <c r="E33">
+        <v>0.1047911106396366</v>
+      </c>
+      <c r="F33">
+        <v>-0.01703236937542795</v>
+      </c>
+      <c r="G33">
+        <v>0.03407428143007479</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04529177483359663</v>
+        <v>0.03997245018271495</v>
       </c>
       <c r="C34">
-        <v>0.06771065205380719</v>
+        <v>0.06457642613067842</v>
       </c>
       <c r="D34">
-        <v>0.03452653407933232</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.04768176898321946</v>
+      </c>
+      <c r="E34">
+        <v>0.03459020253620815</v>
+      </c>
+      <c r="F34">
+        <v>-0.004830892400665126</v>
+      </c>
+      <c r="G34">
+        <v>0.05074314788255271</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>5.404494237098288e-05</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0005739280020690904</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.0005046174060873228</v>
+      </c>
+      <c r="E35">
+        <v>-0.0006297321679427039</v>
+      </c>
+      <c r="F35">
+        <v>-3.106304724087345e-05</v>
+      </c>
+      <c r="G35">
+        <v>-1.353803924662448e-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.02348510039141296</v>
+        <v>0.01940548645652916</v>
       </c>
       <c r="C36">
-        <v>0.01984444913691162</v>
+        <v>0.01638488259628593</v>
       </c>
       <c r="D36">
-        <v>0.01470569787486871</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.04513653724252838</v>
+      </c>
+      <c r="E36">
+        <v>0.07404064051590294</v>
+      </c>
+      <c r="F36">
+        <v>-0.003333842369155362</v>
+      </c>
+      <c r="G36">
+        <v>0.02880353966828295</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03349688850670252</v>
+        <v>0.02511454039617095</v>
       </c>
       <c r="C38">
-        <v>0.0356699998899707</v>
+        <v>0.02767829171513433</v>
       </c>
       <c r="D38">
-        <v>0.0007640549998815224</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.03764045074507043</v>
+      </c>
+      <c r="E38">
+        <v>0.06026343524243497</v>
+      </c>
+      <c r="F38">
+        <v>-0.005705705976291195</v>
+      </c>
+      <c r="G38">
+        <v>-0.01399774703212226</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.05379008324954132</v>
+        <v>0.04617686737646105</v>
       </c>
       <c r="C39">
-        <v>0.06457066457651918</v>
+        <v>0.06410478425903163</v>
       </c>
       <c r="D39">
-        <v>0.04299929621810187</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.07370580459759424</v>
+      </c>
+      <c r="E39">
+        <v>0.05874528622666701</v>
+      </c>
+      <c r="F39">
+        <v>0.01869157285640348</v>
+      </c>
+      <c r="G39">
+        <v>0.02854890929629768</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01461357634283706</v>
+        <v>0.01678383987749852</v>
       </c>
       <c r="C40">
-        <v>0.05579626147035083</v>
+        <v>0.04145394004631082</v>
       </c>
       <c r="D40">
-        <v>0.01697239363840633</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.05109567363840389</v>
+      </c>
+      <c r="E40">
+        <v>0.1248762959458931</v>
+      </c>
+      <c r="F40">
+        <v>-0.02869395860452987</v>
+      </c>
+      <c r="G40">
+        <v>-0.001519168640972801</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02721413628351274</v>
+        <v>0.02232467514656539</v>
       </c>
       <c r="C41">
-        <v>0.01563848131195295</v>
+        <v>0.01157128878406281</v>
       </c>
       <c r="D41">
-        <v>0.01334920848180597</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03038501549504176</v>
+      </c>
+      <c r="E41">
+        <v>0.07565994802125824</v>
+      </c>
+      <c r="F41">
+        <v>0.001472058842731908</v>
+      </c>
+      <c r="G41">
+        <v>0.02117429640633239</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04885186758140048</v>
+        <v>0.03368982722144819</v>
       </c>
       <c r="C43">
-        <v>0.0366381679309532</v>
+        <v>0.02580858023224573</v>
       </c>
       <c r="D43">
-        <v>0.03062287284076443</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.05945307533827199</v>
+      </c>
+      <c r="E43">
+        <v>0.0870824948656512</v>
+      </c>
+      <c r="F43">
+        <v>-0.0228451377351427</v>
+      </c>
+      <c r="G43">
+        <v>0.03205672973430654</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.01899787681307839</v>
+        <v>0.02025040041973676</v>
       </c>
       <c r="C44">
-        <v>0.0671676602759257</v>
+        <v>0.04847913164318398</v>
       </c>
       <c r="D44">
-        <v>0.01264497818626337</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.05453268779600504</v>
+      </c>
+      <c r="E44">
+        <v>0.1079360652808081</v>
+      </c>
+      <c r="F44">
+        <v>0.01679642205196742</v>
+      </c>
+      <c r="G44">
+        <v>0.02351509490391415</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01739305512644641</v>
+        <v>0.01548945395143672</v>
       </c>
       <c r="C46">
-        <v>0.03019161305772829</v>
+        <v>0.03164304442909005</v>
       </c>
       <c r="D46">
-        <v>0.005075578455304846</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03799185839088815</v>
+      </c>
+      <c r="E46">
+        <v>0.08640256240923871</v>
+      </c>
+      <c r="F46">
+        <v>0.01565499802837548</v>
+      </c>
+      <c r="G46">
+        <v>0.0569564355016061</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.09560477498222777</v>
+        <v>0.09558013343469252</v>
       </c>
       <c r="C47">
-        <v>0.07615033012724785</v>
+        <v>0.08434081257372654</v>
       </c>
       <c r="D47">
-        <v>-0.03296774571616661</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.007238375762604114</v>
+      </c>
+      <c r="E47">
+        <v>0.06239180692726379</v>
+      </c>
+      <c r="F47">
+        <v>-0.02708784873305459</v>
+      </c>
+      <c r="G47">
+        <v>0.06242544521745692</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.02556873578008786</v>
+        <v>0.02103576973045565</v>
       </c>
       <c r="C48">
-        <v>0.01472930415926572</v>
+        <v>0.01766311163273309</v>
       </c>
       <c r="D48">
-        <v>-0.004831470264663199</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.03284469946417298</v>
+      </c>
+      <c r="E48">
+        <v>0.09006575977782495</v>
+      </c>
+      <c r="F48">
+        <v>0.002445341745256054</v>
+      </c>
+      <c r="G48">
+        <v>0.03798469456424235</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.08531248355657235</v>
+        <v>0.07373604796877195</v>
       </c>
       <c r="C50">
-        <v>0.08953728123749215</v>
+        <v>0.07655744779029768</v>
       </c>
       <c r="D50">
-        <v>-0.0371254495109232</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.01176668850205322</v>
+      </c>
+      <c r="E50">
+        <v>0.08931853516665643</v>
+      </c>
+      <c r="F50">
+        <v>-0.05126452313049143</v>
+      </c>
+      <c r="G50">
+        <v>0.01443866563499752</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01863480816679702</v>
+        <v>0.01425842571405268</v>
       </c>
       <c r="C51">
-        <v>0.05304379301737056</v>
+        <v>0.03164413355238516</v>
       </c>
       <c r="D51">
-        <v>0.06683958539558793</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.07860123205887129</v>
+      </c>
+      <c r="E51">
+        <v>0.06841429137529707</v>
+      </c>
+      <c r="F51">
+        <v>0.01102667669089384</v>
+      </c>
+      <c r="G51">
+        <v>0.004751634792422091</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.08660723325847014</v>
+        <v>0.1003729005421081</v>
       </c>
       <c r="C53">
-        <v>0.08264048607012457</v>
+        <v>0.08949496343928555</v>
       </c>
       <c r="D53">
-        <v>-0.05798925375792455</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.04644265277453186</v>
+      </c>
+      <c r="E53">
+        <v>0.0896176403533025</v>
+      </c>
+      <c r="F53">
+        <v>-0.01804007997793254</v>
+      </c>
+      <c r="G53">
+        <v>0.07743420169931821</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.04244786183998534</v>
+        <v>0.03314390172502184</v>
       </c>
       <c r="C54">
-        <v>0.03592337416053159</v>
+        <v>0.03334718096721057</v>
       </c>
       <c r="D54">
-        <v>0.02146123145780048</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.05138632155033562</v>
+      </c>
+      <c r="E54">
+        <v>0.08233761151583106</v>
+      </c>
+      <c r="F54">
+        <v>0.005485697231744868</v>
+      </c>
+      <c r="G54">
+        <v>0.03444998343750644</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.085195296231432</v>
+        <v>0.09326033015726008</v>
       </c>
       <c r="C55">
-        <v>0.05872900446752919</v>
+        <v>0.07049548925166782</v>
       </c>
       <c r="D55">
-        <v>-0.05796803364484145</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04769561133785217</v>
+      </c>
+      <c r="E55">
+        <v>0.0552330894878184</v>
+      </c>
+      <c r="F55">
+        <v>-0.03106777163547641</v>
+      </c>
+      <c r="G55">
+        <v>0.03846076285494784</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1465840786258671</v>
+        <v>0.1517695102602265</v>
       </c>
       <c r="C56">
-        <v>0.08668085858438672</v>
+        <v>0.1045273680714164</v>
       </c>
       <c r="D56">
-        <v>-0.06278748156450627</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05579317759378172</v>
+      </c>
+      <c r="E56">
+        <v>0.04888000642851504</v>
+      </c>
+      <c r="F56">
+        <v>-0.02281524416065428</v>
+      </c>
+      <c r="G56">
+        <v>0.0548867269262198</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.05459612517656881</v>
+        <v>0.04230556158670902</v>
       </c>
       <c r="C58">
-        <v>0.02353605004723345</v>
+        <v>0.02410519312651793</v>
       </c>
       <c r="D58">
-        <v>0.2391666087696274</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.2891221649849186</v>
+      </c>
+      <c r="E58">
+        <v>0.3296153373707026</v>
+      </c>
+      <c r="F58">
+        <v>-0.1105021872104077</v>
+      </c>
+      <c r="G58">
+        <v>-0.4769699057018664</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1291097439740245</v>
+        <v>0.1459963524203181</v>
       </c>
       <c r="C59">
-        <v>-0.2027066219088188</v>
+        <v>-0.1909384149913341</v>
       </c>
       <c r="D59">
-        <v>0.04144956318735828</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03863225239575727</v>
+      </c>
+      <c r="E59">
+        <v>0.0298516397159543</v>
+      </c>
+      <c r="F59">
+        <v>0.0299647030977117</v>
+      </c>
+      <c r="G59">
+        <v>-0.01192624753933789</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2801586831351144</v>
+        <v>0.2574544875494357</v>
       </c>
       <c r="C60">
-        <v>0.1019277149354819</v>
+        <v>0.09321114173997939</v>
       </c>
       <c r="D60">
-        <v>0.2304237129519648</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2220160766054047</v>
+      </c>
+      <c r="E60">
+        <v>-0.2666264146702759</v>
+      </c>
+      <c r="F60">
+        <v>-0.1361785694940919</v>
+      </c>
+      <c r="G60">
+        <v>-0.03077210253596881</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.05195722209345911</v>
+        <v>0.04700773021846704</v>
       </c>
       <c r="C61">
-        <v>0.05685590942503842</v>
+        <v>0.05702474973117806</v>
       </c>
       <c r="D61">
-        <v>0.04150964756437064</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.06178050775512616</v>
+      </c>
+      <c r="E61">
+        <v>0.06142301914289366</v>
+      </c>
+      <c r="F61">
+        <v>-0.001324332972310439</v>
+      </c>
+      <c r="G61">
+        <v>0.0445984819730186</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.018122840803464</v>
+        <v>0.01811114679133487</v>
       </c>
       <c r="C63">
-        <v>0.03556338303703173</v>
+        <v>0.0316266619199586</v>
       </c>
       <c r="D63">
-        <v>3.116425405679423e-05</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.0384929184290812</v>
+      </c>
+      <c r="E63">
+        <v>0.08256574931520785</v>
+      </c>
+      <c r="F63">
+        <v>-0.02131101330851396</v>
+      </c>
+      <c r="G63">
+        <v>0.01701388880999148</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.05509203015069192</v>
+        <v>0.05880685238978133</v>
       </c>
       <c r="C64">
-        <v>0.05063803678907947</v>
+        <v>0.06281229911983824</v>
       </c>
       <c r="D64">
-        <v>0.02166524953569571</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.02567102727494639</v>
+      </c>
+      <c r="E64">
+        <v>0.05394915406007619</v>
+      </c>
+      <c r="F64">
+        <v>0.01291192918703981</v>
+      </c>
+      <c r="G64">
+        <v>0.07514108704490609</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.07562066692459701</v>
+        <v>0.06280209962505523</v>
       </c>
       <c r="C65">
-        <v>0.03112625975009745</v>
+        <v>0.02643062329683169</v>
       </c>
       <c r="D65">
-        <v>0.06427691384302332</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1012802540207553</v>
+      </c>
+      <c r="E65">
+        <v>0.05057741095669597</v>
+      </c>
+      <c r="F65">
+        <v>-0.01927170311208979</v>
+      </c>
+      <c r="G65">
+        <v>-0.0284675214314117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.064009068238832</v>
+        <v>0.0564861099706991</v>
       </c>
       <c r="C66">
-        <v>0.08294805644675537</v>
+        <v>0.07872915057874597</v>
       </c>
       <c r="D66">
-        <v>0.06514067538785401</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.09698650114386112</v>
+      </c>
+      <c r="E66">
+        <v>0.07034126812361687</v>
+      </c>
+      <c r="F66">
+        <v>-0.0007653461263550724</v>
+      </c>
+      <c r="G66">
+        <v>0.02407650495870134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05405039728649079</v>
+        <v>0.0444604223716371</v>
       </c>
       <c r="C67">
-        <v>0.03518722934228469</v>
+        <v>0.03058470675420273</v>
       </c>
       <c r="D67">
-        <v>-0.01125012268145422</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01419283819764502</v>
+      </c>
+      <c r="E67">
+        <v>0.03030734824426918</v>
+      </c>
+      <c r="F67">
+        <v>-0.007265390813632686</v>
+      </c>
+      <c r="G67">
+        <v>-0.005354871775348272</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1358979301540696</v>
+        <v>0.1545614026754356</v>
       </c>
       <c r="C68">
-        <v>-0.2799767165267878</v>
+        <v>-0.2387826581462406</v>
       </c>
       <c r="D68">
-        <v>-0.007145544123013161</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.005206029817611003</v>
+      </c>
+      <c r="E68">
+        <v>0.05379411486448368</v>
+      </c>
+      <c r="F68">
+        <v>-0.01750279556720709</v>
+      </c>
+      <c r="G68">
+        <v>-0.01658251127558327</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.09574211928520146</v>
+        <v>0.09063062436888128</v>
       </c>
       <c r="C69">
-        <v>0.08473590962765638</v>
+        <v>0.09536362449746233</v>
       </c>
       <c r="D69">
-        <v>-0.03504058954174442</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.00283840988385259</v>
+      </c>
+      <c r="E69">
+        <v>0.06775926715511368</v>
+      </c>
+      <c r="F69">
+        <v>-0.009445651000049408</v>
+      </c>
+      <c r="G69">
+        <v>0.05940221203444771</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1217459556286086</v>
+        <v>0.1476225770179028</v>
       </c>
       <c r="C71">
-        <v>-0.2505460556564635</v>
+        <v>-0.2378303717759849</v>
       </c>
       <c r="D71">
-        <v>0.02539815234575222</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01651213901625999</v>
+      </c>
+      <c r="E71">
+        <v>0.06915295539460087</v>
+      </c>
+      <c r="F71">
+        <v>-0.02541953201675937</v>
+      </c>
+      <c r="G71">
+        <v>0.0490571098133654</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1020059905577343</v>
+        <v>0.1069187454969185</v>
       </c>
       <c r="C72">
-        <v>0.05448004452464441</v>
+        <v>0.05293572139131962</v>
       </c>
       <c r="D72">
-        <v>0.0299175114917478</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.05910200130343721</v>
+      </c>
+      <c r="E72">
+        <v>0.04007198984605978</v>
+      </c>
+      <c r="F72">
+        <v>-0.03862945595914055</v>
+      </c>
+      <c r="G72">
+        <v>0.05453093161760085</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.356943920487299</v>
+        <v>0.3099292560577097</v>
       </c>
       <c r="C73">
-        <v>0.05804525145936155</v>
+        <v>0.06523624827224531</v>
       </c>
       <c r="D73">
-        <v>0.5130225377479279</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4421406661051411</v>
+      </c>
+      <c r="E73">
+        <v>-0.5451416877773326</v>
+      </c>
+      <c r="F73">
+        <v>-0.1702428492634573</v>
+      </c>
+      <c r="G73">
+        <v>-0.03531717905473309</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1034391479516498</v>
+        <v>0.109174633356075</v>
       </c>
       <c r="C74">
-        <v>0.09426073409278875</v>
+        <v>0.09136584826222105</v>
       </c>
       <c r="D74">
-        <v>-0.03965695233868674</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03898545266289474</v>
+      </c>
+      <c r="E74">
+        <v>0.06574367656714103</v>
+      </c>
+      <c r="F74">
+        <v>-0.03982774253978397</v>
+      </c>
+      <c r="G74">
+        <v>0.03276903143172605</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2496623234668581</v>
+        <v>0.2544147051218854</v>
       </c>
       <c r="C75">
-        <v>0.0911285034812309</v>
+        <v>0.1240180658292176</v>
       </c>
       <c r="D75">
-        <v>-0.1618303488208768</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1605793630751989</v>
+      </c>
+      <c r="E75">
+        <v>0.02596351962209699</v>
+      </c>
+      <c r="F75">
+        <v>0.005877859758177763</v>
+      </c>
+      <c r="G75">
+        <v>0.05064119928681734</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1158697929723387</v>
+        <v>0.1295740354164955</v>
       </c>
       <c r="C76">
-        <v>0.08117831422509841</v>
+        <v>0.09134106307114633</v>
       </c>
       <c r="D76">
-        <v>-0.08198932433073844</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.07155922815882462</v>
+      </c>
+      <c r="E76">
+        <v>0.09521345749513219</v>
+      </c>
+      <c r="F76">
+        <v>-0.003662506154784861</v>
+      </c>
+      <c r="G76">
+        <v>0.05266691878793383</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.08479837365105203</v>
+        <v>0.0683160753162738</v>
       </c>
       <c r="C77">
-        <v>0.0384893134562167</v>
+        <v>0.06035968180211525</v>
       </c>
       <c r="D77">
-        <v>0.0680757689470876</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.09059980854696217</v>
+      </c>
+      <c r="E77">
+        <v>0.1182924701362951</v>
+      </c>
+      <c r="F77">
+        <v>0.2272839131675347</v>
+      </c>
+      <c r="G77">
+        <v>-0.1062233871166627</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04568662899431776</v>
+        <v>0.04713420794642888</v>
       </c>
       <c r="C78">
-        <v>0.04732450676884413</v>
+        <v>0.05670981190617118</v>
       </c>
       <c r="D78">
-        <v>0.06166269444787363</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.09087367124726362</v>
+      </c>
+      <c r="E78">
+        <v>0.07527242817178842</v>
+      </c>
+      <c r="F78">
+        <v>-0.004748476612298943</v>
+      </c>
+      <c r="G78">
+        <v>0.03559247184111611</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.001552803073010444</v>
+        <v>0.03727545606179251</v>
       </c>
       <c r="C79">
-        <v>-0.0004652334897712744</v>
+        <v>0.05418075259913607</v>
       </c>
       <c r="D79">
-        <v>0.00600151562883931</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.08730715818840339</v>
+      </c>
+      <c r="E79">
+        <v>0.0895103701409198</v>
+      </c>
+      <c r="F79">
+        <v>-0.03703097937371761</v>
+      </c>
+      <c r="G79">
+        <v>0.2982386253007104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03743442761702685</v>
+        <v>0.03107726543267283</v>
       </c>
       <c r="C80">
-        <v>0.04771176750441859</v>
+        <v>0.04724288767099277</v>
       </c>
       <c r="D80">
-        <v>0.03549319047314344</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04163660745061922</v>
+      </c>
+      <c r="E80">
+        <v>0.01515190918562121</v>
+      </c>
+      <c r="F80">
+        <v>0.05146920529648446</v>
+      </c>
+      <c r="G80">
+        <v>-0.01326907871133021</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1483248689151866</v>
+        <v>0.1433872235405497</v>
       </c>
       <c r="C81">
-        <v>0.06849493937802606</v>
+        <v>0.09074814963739915</v>
       </c>
       <c r="D81">
-        <v>-0.1398084189141011</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1256142130757406</v>
+      </c>
+      <c r="E81">
+        <v>0.07207186339631588</v>
+      </c>
+      <c r="F81">
+        <v>0.0009786655446440899</v>
+      </c>
+      <c r="G81">
+        <v>0.04432929437828983</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.2253235038488519</v>
+        <v>0.2417586888730842</v>
       </c>
       <c r="C82">
-        <v>0.1122797779732032</v>
+        <v>0.1734243160800452</v>
       </c>
       <c r="D82">
-        <v>-0.2026448941531228</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2493789149391991</v>
+      </c>
+      <c r="E82">
+        <v>-0.08613329003030971</v>
+      </c>
+      <c r="F82">
+        <v>0.02354527188637797</v>
+      </c>
+      <c r="G82">
+        <v>0.3526646130770905</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.04223998390476338</v>
+        <v>0.0287378547853993</v>
       </c>
       <c r="C83">
-        <v>0.04275362536182053</v>
+        <v>0.04969584960887458</v>
       </c>
       <c r="D83">
-        <v>0.0539215965918735</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03682793298735862</v>
+      </c>
+      <c r="E83">
+        <v>0.02381782525067019</v>
+      </c>
+      <c r="F83">
+        <v>0.02066757148913171</v>
+      </c>
+      <c r="G83">
+        <v>-0.003313013616971085</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>2.642934753968957e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.002445292764472672</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.00023419770510421</v>
+      </c>
+      <c r="E84">
+        <v>0.00902089114591611</v>
+      </c>
+      <c r="F84">
+        <v>-0.001744483467247819</v>
+      </c>
+      <c r="G84">
+        <v>-0.008745646284199021</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1931452651564116</v>
+        <v>0.1843406956633182</v>
       </c>
       <c r="C85">
-        <v>0.08456228776626475</v>
+        <v>0.104737269115657</v>
       </c>
       <c r="D85">
-        <v>-0.1506810958575303</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1305845658031264</v>
+      </c>
+      <c r="E85">
+        <v>0.01087691727067532</v>
+      </c>
+      <c r="F85">
+        <v>-0.03437510617792357</v>
+      </c>
+      <c r="G85">
+        <v>0.09986485373790457</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01545483305176911</v>
+        <v>0.01761410093737798</v>
       </c>
       <c r="C86">
-        <v>0.04331488664177734</v>
+        <v>0.02327646819871482</v>
       </c>
       <c r="D86">
-        <v>0.09003701565035988</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.09189816233292832</v>
+      </c>
+      <c r="E86">
+        <v>0.0817878699985185</v>
+      </c>
+      <c r="F86">
+        <v>0.01058802555300649</v>
+      </c>
+      <c r="G86">
+        <v>0.03880215555536824</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.03480075245151184</v>
+        <v>0.03445438539876323</v>
       </c>
       <c r="C87">
-        <v>0.005970618952884317</v>
+        <v>0.01821024914768535</v>
       </c>
       <c r="D87">
-        <v>0.08466972164523982</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1089149723925733</v>
+      </c>
+      <c r="E87">
+        <v>0.1289300898605568</v>
+      </c>
+      <c r="F87">
+        <v>0.05596526471859379</v>
+      </c>
+      <c r="G87">
+        <v>-0.03543581089556484</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.1153515612171814</v>
+        <v>0.09722628835936076</v>
       </c>
       <c r="C88">
-        <v>0.09230686845042615</v>
+        <v>0.07145554100614973</v>
       </c>
       <c r="D88">
-        <v>-0.01335019026205121</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02417113204268022</v>
+      </c>
+      <c r="E88">
+        <v>0.04514786739152</v>
+      </c>
+      <c r="F88">
+        <v>0.01330927101766128</v>
+      </c>
+      <c r="G88">
+        <v>0.04185171711576553</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1943735901194978</v>
+        <v>0.2245685046283271</v>
       </c>
       <c r="C89">
-        <v>-0.3720302956262234</v>
+        <v>-0.3778630765440066</v>
       </c>
       <c r="D89">
-        <v>-0.02400964282206786</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.003671769585019369</v>
+      </c>
+      <c r="E89">
+        <v>0.0804913529162704</v>
+      </c>
+      <c r="F89">
+        <v>0.08369897767400199</v>
+      </c>
+      <c r="G89">
+        <v>0.01993630826737341</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1835412643859608</v>
+        <v>0.203054703033573</v>
       </c>
       <c r="C90">
-        <v>-0.3287766848417395</v>
+        <v>-0.3057332893831178</v>
       </c>
       <c r="D90">
-        <v>-0.02108817474885997</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.00498428620183332</v>
+      </c>
+      <c r="E90">
+        <v>0.06119465988360558</v>
+      </c>
+      <c r="F90">
+        <v>-0.0002365897119668193</v>
+      </c>
+      <c r="G90">
+        <v>-0.0177854129914713</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.191633695407583</v>
+        <v>0.1871500360605999</v>
       </c>
       <c r="C91">
-        <v>0.1293163432283886</v>
+        <v>0.144291067145754</v>
       </c>
       <c r="D91">
-        <v>-0.1432459902970621</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1300339342714629</v>
+      </c>
+      <c r="E91">
+        <v>0.05381508219974782</v>
+      </c>
+      <c r="F91">
+        <v>-0.005476855990297656</v>
+      </c>
+      <c r="G91">
+        <v>0.04509865726953838</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1660952915679781</v>
+        <v>0.18316655036626</v>
       </c>
       <c r="C92">
-        <v>-0.2838632087559532</v>
+        <v>-0.2930241346035539</v>
       </c>
       <c r="D92">
-        <v>-0.01313377534441232</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.005437560018580814</v>
+      </c>
+      <c r="E92">
+        <v>0.08997598762257182</v>
+      </c>
+      <c r="F92">
+        <v>0.03605928869391051</v>
+      </c>
+      <c r="G92">
+        <v>0.03766704538390715</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1995905173776221</v>
+        <v>0.2189501403446578</v>
       </c>
       <c r="C93">
-        <v>-0.3375033257132364</v>
+        <v>-0.3165959172382689</v>
       </c>
       <c r="D93">
-        <v>-0.02540692253745842</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.016357932933506</v>
+      </c>
+      <c r="E93">
+        <v>0.04163135366323861</v>
+      </c>
+      <c r="F93">
+        <v>-0.0224169589488392</v>
+      </c>
+      <c r="G93">
+        <v>0.03280954797191208</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.3574638662284482</v>
+        <v>0.3468250713488876</v>
       </c>
       <c r="C94">
-        <v>0.1334608636716514</v>
+        <v>0.1822510643310562</v>
       </c>
       <c r="D94">
-        <v>-0.4950596793410487</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4407400787135737</v>
+      </c>
+      <c r="E94">
+        <v>-0.06278436273314912</v>
+      </c>
+      <c r="F94">
+        <v>0.1007476377377662</v>
+      </c>
+      <c r="G94">
+        <v>-0.6436610764249696</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1122129101022618</v>
+        <v>0.08200410374461865</v>
       </c>
       <c r="C95">
-        <v>0.05270727406118881</v>
+        <v>0.06013314061411517</v>
       </c>
       <c r="D95">
-        <v>0.2719378064899338</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.210952439602516</v>
+      </c>
+      <c r="E95">
+        <v>-0.1264336049916367</v>
+      </c>
+      <c r="F95">
+        <v>0.9001857367365032</v>
+      </c>
+      <c r="G95">
+        <v>0.04243833479967035</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1852570473634818</v>
+        <v>0.1829170574172139</v>
       </c>
       <c r="C98">
-        <v>0.02740319336506499</v>
+        <v>0.04667623993962042</v>
       </c>
       <c r="D98">
-        <v>0.219406263682806</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.2052086335118382</v>
+      </c>
+      <c r="E98">
+        <v>-0.1811424153265696</v>
+      </c>
+      <c r="F98">
+        <v>-0.1303554632260349</v>
+      </c>
+      <c r="G98">
+        <v>0.01515430128127699</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.0109357043053121</v>
+        <v>0.008441790589909964</v>
       </c>
       <c r="C101">
-        <v>0.03049382289814218</v>
+        <v>0.0281099246826985</v>
       </c>
       <c r="D101">
-        <v>0.0104576008304841</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.04271441381930444</v>
+      </c>
+      <c r="E101">
+        <v>0.07870139059434367</v>
+      </c>
+      <c r="F101">
+        <v>-0.0005615728312791334</v>
+      </c>
+      <c r="G101">
+        <v>0.03680366226059251</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.119014889803102</v>
+        <v>0.1206762078619125</v>
       </c>
       <c r="C102">
-        <v>0.06648646817945883</v>
+        <v>0.09964807095341749</v>
       </c>
       <c r="D102">
-        <v>-0.05607924808687628</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.06336309294177322</v>
+      </c>
+      <c r="E102">
+        <v>-0.002018523553424808</v>
+      </c>
+      <c r="F102">
+        <v>0.02707714255536566</v>
+      </c>
+      <c r="G102">
+        <v>0.06007684165990766</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
